--- a/Testing/Authored TCs/US-2.2_Accountant_Account receivable functionality_TCs.xlsx
+++ b/Testing/Authored TCs/US-2.2_Accountant_Account receivable functionality_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Testing/Authored TCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{083C7437-5B3C-4F23-90F0-D4578BBCD23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB2E13D2-5EB0-4FFF-9F2A-109A76759752}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{083C7437-5B3C-4F23-90F0-D4578BBCD23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D6AA4D-9577-4D2F-86B8-FA1A58FD53A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
   <si>
     <t>Subject</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Validate customer dropdown field.</t>
+  </si>
+  <si>
+    <t>It should not be displayed and should be as per parameter.</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,7 +990,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1001,7 +1004,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1015,7 +1018,7 @@
         <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -1383,7 +1386,7 @@
         <v>71</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1397,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1411,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1692,7 +1695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1703,10 +1706,10 @@
         <v>71</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1717,10 +1720,10 @@
         <v>72</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1731,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
